--- a/medicine/Pharmacie/Buclizine/Buclizine.xlsx
+++ b/medicine/Pharmacie/Buclizine/Buclizine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La buclizine est un antihistaminique dérivé de la pipérazine. Elle a des propriétés antihistaminiques, par antagonisme des récepteurs histaminique H1, anticholinergiques, par antagonisme des récepteurs muscariniques de l’acétylcholine,  et adrénolytiques. Elle occasionne un effet sédatif marqué. Elle a été commercialisé en France sous le nom "Aphilan" pour le traitement des manifestations allergiques (rhinite, conjonctivite, urticaire). Elle a été aussi utilisée comme antiémétique et comme antivertigineux (hors AMM). Elle n'est plus commercialisé depuis 2008 (en France).
-La buclizine est considérée être un antiémétique similaire à la  méclozine[2].
+La buclizine est considérée être un antiémétique similaire à la  méclozine.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La buclizine est chirale. En effet, elle possède un atome de carbone asymétrique, celui du pont méthylène enrre les deux cycles aromatiques et directement lié à l'atome d'azote de la partie pipérazine. La buclizine se présente donc comme une paire d'énantiomères : 
 (4R)-1-[(4-tert-butylphényl)méthyl]-4-[(4-chlorophényl)(phényl)méthyl]pipérazine
